--- a/out/stats/potential_neg_overall_ind_stats.xlsx
+++ b/out/stats/potential_neg_overall_ind_stats.xlsx
@@ -638,7 +638,7 @@
         <v>125.6471691328981</v>
       </c>
       <c r="E4">
-        <v>55.60725372347269</v>
+        <v>55.60725372347268</v>
       </c>
       <c r="F4">
         <v>301.0275734878784</v>
@@ -653,7 +653,7 @@
         <v>111.0836771687602</v>
       </c>
       <c r="J4">
-        <v>170.239439222134</v>
+        <v>170.2394392221341</v>
       </c>
       <c r="K4">
         <v>4453.330978489016</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>90.63657151083164</v>
+        <v>90.63657151083163</v>
       </c>
       <c r="C4">
         <v>231.338865052553</v>
@@ -1152,10 +1152,10 @@
         <v>131.9996027083094</v>
       </c>
       <c r="H4">
-        <v>166.189813487969</v>
+        <v>166.1898134879689</v>
       </c>
       <c r="I4">
-        <v>6.916935737738207</v>
+        <v>6.916935737738206</v>
       </c>
       <c r="J4">
         <v>158.9811309558465</v>
@@ -2063,7 +2063,7 @@
         <v>15.11072419311598</v>
       </c>
       <c r="K4">
-        <v>9.552345785198524</v>
+        <v>9.552345785198522</v>
       </c>
       <c r="L4">
         <v>69.69538085752076</v>
@@ -2425,7 +2425,7 @@
         <v>-47.27543022222222</v>
       </c>
       <c r="C3">
-        <v>-240.3861333333334</v>
+        <v>-240.3861333333333</v>
       </c>
       <c r="D3">
         <v>-14.19715733333333</v>
@@ -2434,7 +2434,7 @@
         <v>-32.8</v>
       </c>
       <c r="F3">
-        <v>-9.240000000000002</v>
+        <v>-9.24</v>
       </c>
       <c r="G3">
         <v>-135.0627530800234</v>
@@ -2455,10 +2455,10 @@
         <v>-160.02</v>
       </c>
       <c r="M3">
-        <v>-89.76242995997713</v>
+        <v>-89.76242995997715</v>
       </c>
       <c r="N3">
-        <v>-55.80000000000001</v>
+        <v>-55.8</v>
       </c>
       <c r="O3">
         <v>-14.7</v>
@@ -3745,13 +3745,13 @@
         <v>-7.76</v>
       </c>
       <c r="J3">
-        <v>-17.30573885714285</v>
+        <v>-17.30573885714286</v>
       </c>
       <c r="K3">
         <v>-7.05</v>
       </c>
       <c r="L3">
-        <v>-50.75796651851851</v>
+        <v>-50.75796651851852</v>
       </c>
       <c r="M3">
         <v>-235.3780888888889</v>
@@ -3789,7 +3789,7 @@
         <v>71.64943272591643</v>
       </c>
       <c r="I4">
-        <v>4.705741174352877</v>
+        <v>4.705741174352878</v>
       </c>
       <c r="J4">
         <v>15.6181633048431</v>
@@ -3798,7 +3798,7 @@
         <v>9.069904078875364</v>
       </c>
       <c r="L4">
-        <v>26.9927020539977</v>
+        <v>26.99270205399771</v>
       </c>
       <c r="M4">
         <v>67.53985361450466</v>
